--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -219,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -258,11 +264,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -295,6 +302,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,10 +321,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -225,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -265,11 +271,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -303,6 +310,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,10 +329,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -231,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -272,11 +278,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -311,6 +318,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,10 +337,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -237,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -279,11 +291,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -319,6 +333,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,10 +353,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -249,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -293,11 +305,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -335,6 +349,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +369,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">

--- a/spiral.xlsx
+++ b/spiral.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -261,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -307,11 +313,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -351,6 +358,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,10 +377,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
